--- a/Data/Centerline/Alpha.xlsx
+++ b/Data/Centerline/Alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>01_manual1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLength=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLength=8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,12 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,6 +461,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -499,22 +511,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>0.82199999999999995</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E3" s="1">
-        <v>0.80400000000000005</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="F3" s="1">
-        <v>0.77300000000000002</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="G3" s="1">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H3" s="1">
         <v>0.70199999999999996</v>
@@ -533,7 +545,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>8.6699999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D4" s="1">
         <v>0.11</v>
@@ -562,31 +574,33 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="1">
-        <v>0.93300000000000005</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D6" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.876</v>
-      </c>
       <c r="F6" s="1">
-        <v>0.77700000000000002</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="G6" s="1">
-        <v>0.95499999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="H6" s="1">
-        <v>0.72799999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -625,31 +639,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C9" s="1">
-        <v>0.93300000000000005</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D9" s="1">
         <v>0.88300000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.88600000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>0.77700000000000002</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="G9" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>0.72799999999999998</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -678,7 +692,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
@@ -689,14 +703,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>0.95199999999999996</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -719,7 +733,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -732,7 +746,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -745,154 +759,256 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.151</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G25" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.97899999999999998</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -940,7 +1056,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
@@ -953,7 +1069,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
@@ -966,7 +1082,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -992,7 +1108,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
@@ -1005,7 +1121,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
@@ -1018,7 +1134,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
@@ -1044,7 +1160,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
@@ -1057,7 +1173,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
@@ -1070,16 +1186,16 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="K38:K40"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K17:K19"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="K34:K36"/>
+    <mergeCell ref="K24:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
